--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_11_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_11_9.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997931765785324</v>
+        <v>0.9998511303375783</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998947450500879</v>
+        <v>0.9990874580009866</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9997173167177109</v>
+        <v>0.9998504159966042</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997384518820498</v>
+        <v>0.9998040615241823</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9997600178026831</v>
+        <v>0.9998327648834582</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001930605854410089</v>
+        <v>0.0001389632952477187</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009825087558462107</v>
+        <v>0.0008518179001146302</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002703910245125105</v>
+        <v>8.753594929201948e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00014832414176672</v>
+        <v>0.0002244110262026513</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002093575831396153</v>
+        <v>0.0001559734877473354</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001646846182052554</v>
+        <v>0.001322881598707738</v>
       </c>
       <c r="M2" t="n">
-        <v>0.013894624336088</v>
+        <v>0.01178826939154848</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000992752423044</v>
+        <v>1.000714574379624</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0144861472599128</v>
+        <v>0.0122901204246284</v>
       </c>
       <c r="P2" t="n">
-        <v>75.10501300823606</v>
+        <v>75.76260144534079</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.4524119294139</v>
+        <v>111.1100003665186</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997889801945459</v>
+        <v>0.9998488820880065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989441869067062</v>
+        <v>0.9990873888015517</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9997113563150319</v>
+        <v>0.9998504789087502</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999733532782306</v>
+        <v>0.9998024378608116</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9997551513643241</v>
+        <v>0.9998317876847983</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001969777256925234</v>
+        <v>0.0001410619375362891</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009855551777512427</v>
+        <v>0.0008518824947497452</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00027609224381994</v>
+        <v>8.74991333604988e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001511137670696503</v>
+        <v>0.0002262706301508833</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002136030054447951</v>
+        <v>0.0001568848817556911</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001663669722447012</v>
+        <v>0.001334064420915279</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01403487533583834</v>
+        <v>0.01187694984144873</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00101289506618</v>
+        <v>1.000725365977569</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01463236903508211</v>
+        <v>0.01238257618487475</v>
       </c>
       <c r="P3" t="n">
-        <v>75.06483980633909</v>
+        <v>75.73262298146273</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.4122387275169</v>
+        <v>111.0800219026405</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997846950971883</v>
+        <v>0.9998465866604096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989408436815356</v>
+        <v>0.9990872908354361</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9997052490783249</v>
+        <v>0.9998505283828133</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997285141880453</v>
+        <v>0.9998007736090255</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997501720905692</v>
+        <v>0.9998307813488397</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002009776759818331</v>
+        <v>0.0001432046184402756</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009886759316973821</v>
+        <v>0.0008519739418183568</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002819339121943774</v>
+        <v>8.747018134033502e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001539598157907567</v>
+        <v>0.0002281767205682953</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000217946863992567</v>
+        <v>0.0001578234509543151</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00168067153213388</v>
+        <v>0.001345337291722605</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01417665954947897</v>
+        <v>0.01196681321155618</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001033463533496</v>
+        <v>1.000736384030034</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0147801892962312</v>
+        <v>0.01247626522469049</v>
       </c>
       <c r="P4" t="n">
-        <v>75.02463344168069</v>
+        <v>75.7024721045598</v>
       </c>
       <c r="Q4" t="n">
-        <v>110.3720323628585</v>
+        <v>111.0498710257376</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997803217545341</v>
+        <v>0.999844240634873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989374235782603</v>
+        <v>0.9990871687192306</v>
       </c>
       <c r="D5" t="n">
-        <v>0.999699023436139</v>
+        <v>0.9998505470817506</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997234182895089</v>
+        <v>0.9997990665573744</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999745102778878</v>
+        <v>0.9998297390786938</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002050599993818264</v>
+        <v>0.0001453945303000799</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009918684479796732</v>
+        <v>0.0008520879319358762</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002878888372796368</v>
+        <v>8.745923879842932e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001568497038268621</v>
+        <v>0.0002301318302587963</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002223692705532494</v>
+        <v>0.0001587955345286128</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001697845640383049</v>
+        <v>0.001356731367167364</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01431991617928773</v>
+        <v>0.01205796542954407</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001054455578236</v>
+        <v>1.00074764495261</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01492954465735303</v>
+        <v>0.01257129798130923</v>
       </c>
       <c r="P5" t="n">
-        <v>74.98441588347386</v>
+        <v>75.67211922373251</v>
       </c>
       <c r="Q5" t="n">
-        <v>110.3318148046517</v>
+        <v>111.0195181449103</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997758635464238</v>
+        <v>0.9998418462982259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.998933924931648</v>
+        <v>0.9990870185703516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9996926758102436</v>
+        <v>0.9998505443565933</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997181794044264</v>
+        <v>0.9997973376183574</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9997399201190361</v>
+        <v>0.9998286766483623</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002092215409601167</v>
+        <v>0.0001476295384608917</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009951342810194008</v>
+        <v>0.0008522280893236691</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002939604417099161</v>
+        <v>8.746083354943186e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001598206796448904</v>
+        <v>0.0002321120078498098</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002268905606774032</v>
+        <v>0.0001597864206996208</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001715183394159685</v>
+        <v>0.001368243450817428</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01446449241971929</v>
+        <v>0.01215028964514393</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001075854977166</v>
+        <v>1.000759137768516</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01508027580765383</v>
+        <v>0.01266755262990464</v>
       </c>
       <c r="P6" t="n">
-        <v>74.94423372562756</v>
+        <v>75.64160908149293</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.2916326468054</v>
+        <v>110.9890080026707</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997713093969635</v>
+        <v>0.9998394050683573</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989303410095266</v>
+        <v>0.9990868393638476</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9996861891286526</v>
+        <v>0.9998505243487448</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997128781938628</v>
+        <v>0.9997955717348384</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9997346409689843</v>
+        <v>0.9998275861119625</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002134726395773189</v>
+        <v>0.0001499083193856037</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009984797150037442</v>
+        <v>0.0008523953707289132</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003001650551092473</v>
+        <v>8.747254206085655e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001628270002919011</v>
+        <v>0.0002341344984863157</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002314960277005742</v>
+        <v>0.0001608035202735861</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001732712392094181</v>
+        <v>0.001379851282100061</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01461070291181499</v>
+        <v>0.01224370529642084</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001097714894575</v>
+        <v>1.000770855671885</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01523271078309549</v>
+        <v>0.01276494517885347</v>
       </c>
       <c r="P7" t="n">
-        <v>74.90400377074084</v>
+        <v>75.61097330965072</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.2514026919187</v>
+        <v>110.9583722308285</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997666653119657</v>
+        <v>0.9998369082781509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989266765114557</v>
+        <v>0.9990866260296889</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9996795573958291</v>
+        <v>0.999850483117406</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997074554357256</v>
+        <v>0.9997937721863343</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997292427930375</v>
+        <v>0.999826468246807</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002178076890710016</v>
+        <v>0.0001522389634469426</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001001900363100047</v>
+        <v>0.0008525945088017548</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003065084123036419</v>
+        <v>8.749667047225754e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001659022506626723</v>
+        <v>0.0002361955460923463</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002362053314831571</v>
+        <v>0.0001618461082823019</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00175040187560155</v>
+        <v>0.001391576054257103</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01475830915352438</v>
+        <v>0.0123385154474492</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001120006502565</v>
+        <v>1.000782840264876</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0153866009281015</v>
+        <v>0.01286379159429518</v>
       </c>
       <c r="P8" t="n">
-        <v>74.86379608946453</v>
+        <v>75.58011828735405</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.2111950106423</v>
+        <v>110.9275172085319</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997619228518581</v>
+        <v>0.999834356785306</v>
       </c>
       <c r="C9" t="n">
-        <v>0.998922926535345</v>
+        <v>0.9990863782748777</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9996727865537596</v>
+        <v>0.9998503994593502</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997019175824614</v>
+        <v>0.9997919234851813</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997237309459186</v>
+        <v>0.9998253068914439</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002222345674114592</v>
+        <v>0.0001546206700200714</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001005400801194472</v>
+        <v>0.0008528257770429142</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003129848296890604</v>
+        <v>8.754562682566646e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001690427715697897</v>
+        <v>0.0002383128889018542</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002410138006294251</v>
+        <v>0.0001629292578637603</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001768288464545958</v>
+        <v>0.001403435379753978</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01490753391448294</v>
+        <v>0.01243465600730762</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001142770311081</v>
+        <v>1.000795087430531</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01554217849607191</v>
+        <v>0.01296402505682516</v>
       </c>
       <c r="P9" t="n">
-        <v>74.82355424789975</v>
+        <v>75.54907146149507</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.1709531690776</v>
+        <v>110.8964703826729</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997570839312445</v>
+        <v>0.999831752226455</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989190881534602</v>
+        <v>0.999086099580257</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9996658786667081</v>
+        <v>0.9998502982225207</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996962559363863</v>
+        <v>0.9997900460189434</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9997181037323026</v>
+        <v>0.9998241223593188</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002267514874001498</v>
+        <v>0.000157051911380502</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001008983762198457</v>
+        <v>0.0008530859262380179</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00031959233276439</v>
+        <v>8.760487020578387e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001722534954765961</v>
+        <v>0.0002404631767579718</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000245922914120493</v>
+        <v>0.0001640340234818778</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001786358927637589</v>
+        <v>0.001415415367208649</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01505826973460596</v>
+        <v>0.01253203540453433</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001165997130026</v>
+        <v>1.000807589313016</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01569933145212372</v>
+        <v>0.01306555009659496</v>
       </c>
       <c r="P10" t="n">
-        <v>74.78331181868539</v>
+        <v>75.51786832306308</v>
       </c>
       <c r="Q10" t="n">
-        <v>110.1307107398632</v>
+        <v>110.8652672442409</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997521459294438</v>
+        <v>0.999829093739764</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9989151634511011</v>
+        <v>0.9990857901907667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9996588186571462</v>
+        <v>0.9998501748882553</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9996905053215117</v>
+        <v>0.9997881173893191</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9997123642052061</v>
+        <v>0.9998228994801726</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002313608953278812</v>
+        <v>0.0001595334920124525</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00101264729957615</v>
+        <v>0.0008533747277466113</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003263453434236662</v>
+        <v>8.767704491533814e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001755146736589571</v>
+        <v>0.0002426720627429901</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002509300085413116</v>
+        <v>0.0001651745538291641</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001804605226467912</v>
+        <v>0.001427491750124883</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01521055210463713</v>
+        <v>0.01263065683218622</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00118969953867</v>
+        <v>1.000820350049133</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01585809679791509</v>
+        <v>0.01316837004259649</v>
       </c>
       <c r="P11" t="n">
-        <v>74.74306349830803</v>
+        <v>75.48651335302613</v>
       </c>
       <c r="Q11" t="n">
-        <v>110.0904624194858</v>
+        <v>110.8339122742039</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9997471108142207</v>
+        <v>0.9998263746684238</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989111456270556</v>
+        <v>0.999085442053544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9996516153217162</v>
+        <v>0.9998500127613609</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9996846402117069</v>
+        <v>0.9997861523510312</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9997065088903943</v>
+        <v>0.9998216420757772</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002360609543726588</v>
+        <v>0.0001620716257551696</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001016397761960532</v>
+        <v>0.0008536996985625007</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003332354475397251</v>
+        <v>8.77719209133719e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001788407820056283</v>
+        <v>0.0002449226480702872</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002560381147726768</v>
+        <v>0.0001663472844918295</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001823024864299096</v>
+        <v>0.001439725904048844</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01536427526350198</v>
+        <v>0.01273073547581481</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00121386809174</v>
+        <v>1.000833401591566</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01601836426990361</v>
+        <v>0.0132727092412757</v>
       </c>
       <c r="P12" t="n">
-        <v>74.70284101009489</v>
+        <v>75.45494437230657</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.0502399312727</v>
+        <v>110.8023432934844</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9997419684130312</v>
+        <v>0.9998236005404935</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989070357172124</v>
+        <v>0.9990850568649133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999644255970092</v>
+        <v>0.9998498334014644</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9996786421830272</v>
+        <v>0.999784141472814</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9997005248425198</v>
+        <v>0.999820351119075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002408611601577171</v>
+        <v>0.0001646611524079627</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001020234182394983</v>
+        <v>0.0008540592552413543</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003402747836097337</v>
+        <v>8.787688159398519e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001822422687499842</v>
+        <v>0.0002472257344977621</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000261258526179859</v>
+        <v>0.0001675513080458736</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001841652865786238</v>
+        <v>0.001452057941346137</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01551970232181394</v>
+        <v>0.01283203617544631</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00123855161745</v>
+        <v>1.000846717405631</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01618040817986629</v>
+        <v>0.01337832252141187</v>
       </c>
       <c r="P13" t="n">
-        <v>74.662579778826</v>
+        <v>75.42324163481243</v>
       </c>
       <c r="Q13" t="n">
-        <v>110.0099787000038</v>
+        <v>110.7706405559902</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9997367230784636</v>
+        <v>0.9998207627106495</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989028286508895</v>
+        <v>0.9990846344317375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9996367506030931</v>
+        <v>0.999849606305561</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9996725302838403</v>
+        <v>0.9997820953909654</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9996944237354517</v>
+        <v>0.9998190235712644</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002457574497330464</v>
+        <v>0.0001673101420010638</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001024161294138504</v>
+        <v>0.0008544535780683684</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0003474537856920257</v>
+        <v>8.800977719132373e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001857083315477742</v>
+        <v>0.0002495691401276626</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002665810586199</v>
+        <v>0.0001687894586594931</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001860453261771745</v>
+        <v>0.001464539106996653</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01567665301437288</v>
+        <v>0.0129348421714787</v>
       </c>
       <c r="N14" t="n">
-        <v>1.001263729223375</v>
+        <v>1.000860338988883</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01634404058834018</v>
+        <v>0.01348550518153311</v>
       </c>
       <c r="P14" t="n">
-        <v>74.62233097024321</v>
+        <v>75.39132266032956</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.969729891421</v>
+        <v>110.7387215815074</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9997313730726478</v>
+        <v>0.9998178717383293</v>
       </c>
       <c r="C15" t="n">
-        <v>0.998898527422878</v>
+        <v>0.9990841744334183</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9996290964244693</v>
+        <v>0.9998493538218468</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9996662964115529</v>
+        <v>0.9997800070236337</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9996882014026697</v>
+        <v>0.9998176620952302</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002507514453239236</v>
+        <v>0.0001700087377628718</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00102817630168519</v>
+        <v>0.0008548829663077282</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0003547751284439656</v>
+        <v>8.815752963206961e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000189243565386023</v>
+        <v>0.0002519609759018432</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0002720093469149943</v>
+        <v>0.0001700592527669564</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001879435793056922</v>
+        <v>0.001477120013517624</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01583513325879904</v>
+        <v>0.01303873988400995</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001289409251291</v>
+        <v>1.00087421565602</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0165092676648709</v>
+        <v>0.01359382603478473</v>
       </c>
       <c r="P15" t="n">
-        <v>74.58209673427032</v>
+        <v>75.35932144725949</v>
       </c>
       <c r="Q15" t="n">
-        <v>109.9294956554481</v>
+        <v>110.7067203684373</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9997259105413023</v>
+        <v>0.999814915996541</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9988941265028178</v>
+        <v>0.9990836766875065</v>
       </c>
       <c r="D16" t="n">
-        <v>0.99962126053172</v>
+        <v>0.9998490798139824</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9996599281441831</v>
+        <v>0.9997778691991088</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9996818357689742</v>
+        <v>0.9998162634996377</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002558504785575309</v>
+        <v>0.0001727677929801196</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001032284367383232</v>
+        <v>0.0008553475902678769</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0003622702836272632</v>
+        <v>8.831787791788895e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001928550147803604</v>
+        <v>0.0002544094556782754</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002775626492038118</v>
+        <v>0.0001713636667980822</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001898623034392478</v>
+        <v>0.001489826704705277</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01599532677245235</v>
+        <v>0.01314411628753031</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001315629401749</v>
+        <v>1.000888403216603</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01667628094804671</v>
+        <v>0.01370368852996218</v>
       </c>
       <c r="P16" t="n">
-        <v>74.54183470450718</v>
+        <v>75.32712420436546</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.889233625685</v>
+        <v>110.6745231255433</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9997203374130497</v>
+        <v>0.9998118942478923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9988896244053936</v>
+        <v>0.9990831306388511</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9996132704620756</v>
+        <v>0.9998487621574806</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9996534491126077</v>
+        <v>0.9997756827760473</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9996753496114358</v>
+        <v>0.9998148213707189</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002610527491493277</v>
+        <v>0.0001755884627043423</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001036486877709477</v>
+        <v>0.0008558573027189364</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0003699129114457484</v>
+        <v>8.850376920838347e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001965292786422054</v>
+        <v>0.0002569135960257925</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002832210950439769</v>
+        <v>0.000172708682617088</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001918005767549916</v>
+        <v>0.001502684482768911</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01615712688411302</v>
+        <v>0.01325097968847369</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001342380417362</v>
+        <v>1.000902907610117</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01684496922543318</v>
+        <v>0.01381510132712145</v>
       </c>
       <c r="P17" t="n">
-        <v>74.50157613408287</v>
+        <v>75.29473516212204</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.8489750552607</v>
+        <v>110.6421340832999</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9997146493304332</v>
+        <v>0.9998088070531842</v>
       </c>
       <c r="C18" t="n">
-        <v>0.998885017689803</v>
+        <v>0.9990825467044406</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9996051128404441</v>
+        <v>0.9998484035553811</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9996468336294592</v>
+        <v>0.9997734435927208</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9996687272484917</v>
+        <v>0.9998133340011649</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002663623245938448</v>
+        <v>0.0001784702234521793</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001040787044501984</v>
+        <v>0.0008564023798593781</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0003777158053865796</v>
+        <v>8.871362169587896e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002002809242975454</v>
+        <v>0.0002594781634292646</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002889983648420625</v>
+        <v>0.0001740958925625718</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001937585926194145</v>
+        <v>0.001515674488655938</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01632061042344448</v>
+        <v>0.01335927481011523</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001369683213921</v>
+        <v>1.000917726144716</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01701541259749157</v>
+        <v>0.01392800679629308</v>
       </c>
       <c r="P18" t="n">
-        <v>74.46130610699333</v>
+        <v>75.26217757210753</v>
       </c>
       <c r="Q18" t="n">
-        <v>109.8087050281711</v>
+        <v>110.6095764932853</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9997088488664987</v>
+        <v>0.9998056557204699</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9988803064608773</v>
+        <v>0.999081915434371</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9995967900524282</v>
+        <v>0.9998480314855728</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9996400934396522</v>
+        <v>0.9997711691013829</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9996619738053946</v>
+        <v>0.9998118207272066</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002717768030657481</v>
+        <v>0.0001814118542134936</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001045184769905029</v>
+        <v>0.0008569916427598196</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003856766835827745</v>
+        <v>8.893135543169145e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002041032911962076</v>
+        <v>0.0002620831695828946</v>
       </c>
       <c r="K19" t="n">
-        <v>0.000294889987389491</v>
+        <v>0.000175507262507293</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001957350059457527</v>
+        <v>0.001528796992709913</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01648565446276696</v>
+        <v>0.01346892179105267</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001397525440806</v>
+        <v>1.000932852541745</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01718748290325626</v>
+        <v>0.01404232167620957</v>
       </c>
       <c r="P19" t="n">
-        <v>74.42105881098001</v>
+        <v>75.2294813478853</v>
       </c>
       <c r="Q19" t="n">
-        <v>109.7684577321578</v>
+        <v>110.5768802690631</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9997029219384909</v>
+        <v>0.9998024405282494</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9988754871154935</v>
+        <v>0.9990812515915327</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9995882766365605</v>
+        <v>0.999847614538304</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9996331997877933</v>
+        <v>0.9997688385737807</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9996550659774317</v>
+        <v>0.9998102589676164</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002773093301989746</v>
+        <v>0.0001844130950206325</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001049683417276009</v>
+        <v>0.0008576113109099917</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0003938199003302664</v>
+        <v>8.917535127445547e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002080126865442806</v>
+        <v>0.0002647523548392053</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003009162934372735</v>
+        <v>0.0001769638530568304</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00197734767461473</v>
+        <v>0.001542026264522341</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01665260730933671</v>
+        <v>0.01357987831391108</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001425974695244</v>
+        <v>1.000948285464403</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01736154327814453</v>
+        <v>0.01415800184795773</v>
       </c>
       <c r="P20" t="n">
-        <v>74.38075391864027</v>
+        <v>75.19666447030299</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.7281528398181</v>
+        <v>110.5440633914808</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9996968844793832</v>
+        <v>0.9997991530580362</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9988705555412171</v>
+        <v>0.9990805340096603</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9995796184377729</v>
+        <v>0.9998471649800756</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9996261816299071</v>
+        <v>0.9997664543754974</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996480383090875</v>
+        <v>0.9998086540231695</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0002829450332621913</v>
+        <v>0.0001874818041613794</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001054286825391979</v>
+        <v>0.0008582811420896879</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0004021016042275025</v>
+        <v>8.943843091791242e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002119926893575484</v>
+        <v>0.0002674830098634054</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003070471467925255</v>
+        <v>0.0001784607203906589</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001997507362513609</v>
+        <v>0.001555417251023079</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01682097004522008</v>
+        <v>0.0136923995034245</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001454954498961</v>
+        <v>1.000964065321426</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01753707356425336</v>
+        <v>0.0142753132974597</v>
       </c>
       <c r="P21" t="n">
-        <v>74.34051581588278</v>
+        <v>75.16365752347114</v>
       </c>
       <c r="Q21" t="n">
-        <v>109.6879147370606</v>
+        <v>110.511056444649</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9996907155207347</v>
+        <v>0.9997957968775142</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9988655114625766</v>
+        <v>0.9990797680044767</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9995707514107087</v>
+        <v>0.9998466748269564</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999619019322579</v>
+        <v>0.9997640195284315</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9996408493049537</v>
+        <v>0.9998070052445714</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0002887034853745473</v>
+        <v>0.0001906146513593457</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001058995251393302</v>
+        <v>0.0008589961743047897</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004105830556697577</v>
+        <v>8.972526652608617e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000216054439431843</v>
+        <v>0.000270271673633553</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003133187475508004</v>
+        <v>0.0001799984700798196</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002017898190113887</v>
+        <v>0.001568924211022773</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0169912767435101</v>
+        <v>0.01380632649763672</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001484565500473</v>
+        <v>1.000980174987932</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01771463057127305</v>
+        <v>0.01439409039967692</v>
       </c>
       <c r="P22" t="n">
-        <v>74.3002207974331</v>
+        <v>75.13051340005444</v>
       </c>
       <c r="Q22" t="n">
-        <v>109.6476197186109</v>
+        <v>110.4779123212323</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9996844243638091</v>
+        <v>0.9997923716442225</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9988603525507022</v>
+        <v>0.9990789583349204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9995616928855009</v>
+        <v>0.999846134999268</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9996117079302147</v>
+        <v>0.9997615446089769</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9996335068614973</v>
+        <v>0.9998053162772548</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0002945760042147414</v>
+        <v>0.0001938119562867578</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001063810869178148</v>
+        <v>0.0008597519652952685</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0004192476781110493</v>
+        <v>9.004117148981119e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002202007357465002</v>
+        <v>0.0002731062328606779</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0003197242069287748</v>
+        <v>0.0001815737021752445</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002038480503106895</v>
+        <v>0.001582571639200244</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01716321660455118</v>
+        <v>0.0139216362647053</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001514763053716</v>
+        <v>1.000996616107732</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01789389026816323</v>
+        <v>0.01451430914225375</v>
       </c>
       <c r="P23" t="n">
-        <v>74.25994701868319</v>
+        <v>75.09724433292897</v>
       </c>
       <c r="Q23" t="n">
-        <v>109.607345939861</v>
+        <v>110.4446432541068</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9996780016825756</v>
+        <v>0.9997888627787277</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9988550752951567</v>
+        <v>0.999078091271028</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9995524478518465</v>
+        <v>0.9998455511404374</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9996042547627657</v>
+        <v>0.9997589881945126</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9996260160900931</v>
+        <v>0.9998035634580464</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0003005712952230544</v>
+        <v>0.0001970873282048312</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001068736955584985</v>
+        <v>0.0008605613313791612</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0004280906988275189</v>
+        <v>9.038284329850403e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002244274328222474</v>
+        <v>0.0002760341294413048</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003262590658248832</v>
+        <v>0.0001832084863699044</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002059294827742287</v>
+        <v>0.001596399584326613</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01733699210425656</v>
+        <v>0.0140387794414198</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001545591923637</v>
+        <v>1.001013458662107</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01807506375065594</v>
+        <v>0.01463643934652079</v>
       </c>
       <c r="P24" t="n">
-        <v>74.21965115362323</v>
+        <v>75.06372727414117</v>
       </c>
       <c r="Q24" t="n">
-        <v>109.567050074801</v>
+        <v>110.411126195319</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9996714480720741</v>
+        <v>0.9997852853004148</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9988496779910756</v>
+        <v>0.9990771750991488</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9995430151706384</v>
+        <v>0.9998449313705937</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9995966688763291</v>
+        <v>0.9997563940581743</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999618379309747</v>
+        <v>0.9998017762113056</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0003066888029560031</v>
+        <v>0.0002004267471767945</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001073775102030492</v>
+        <v>0.0008614165376130042</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004371132073929097</v>
+        <v>9.07455300857e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002287293949394235</v>
+        <v>0.0002790052294018178</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003329213011661666</v>
+        <v>0.0001848753797437589</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002080302076107882</v>
+        <v>0.001610338590254292</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0175125327396126</v>
+        <v>0.01415721537509388</v>
       </c>
       <c r="N25" t="n">
-        <v>1.001577049254044</v>
+        <v>1.001030630558009</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01825807751427829</v>
+        <v>0.01475991734308755</v>
       </c>
       <c r="P25" t="n">
-        <v>74.17935399128444</v>
+        <v>75.03012345742735</v>
       </c>
       <c r="Q25" t="n">
-        <v>109.5267529124623</v>
+        <v>110.3775223786052</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9996647621812174</v>
+        <v>0.9997816319611552</v>
       </c>
       <c r="C26" t="n">
-        <v>0.998844159922803</v>
+        <v>0.9990761989474245</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9995333863939794</v>
+        <v>0.9998442734700133</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9995889141747886</v>
+        <v>0.9997537435100586</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9996105801569348</v>
+        <v>0.9997999423649765</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0003129297885940378</v>
+        <v>0.0002038369790125477</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001078925976547796</v>
+        <v>0.000862327732399598</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0004463232843544569</v>
+        <v>9.113053082467231e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002331270922338597</v>
+        <v>0.0002820409385454941</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003397251882941583</v>
+        <v>0.0001865857346850832</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002101530524702981</v>
+        <v>0.00162442211357793</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01768982161001172</v>
+        <v>0.01427714884045648</v>
       </c>
       <c r="N26" t="n">
-        <v>1.001609141530157</v>
+        <v>1.001048166586455</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01844291393892887</v>
+        <v>0.01488495662436713</v>
       </c>
       <c r="P26" t="n">
-        <v>74.13906342035602</v>
+        <v>74.9963800121523</v>
       </c>
       <c r="Q26" t="n">
-        <v>109.4864623415338</v>
+        <v>110.3437789333301</v>
       </c>
     </row>
   </sheetData>
